--- a/SDET_10-Selenium/testData/TestData.xlsx
+++ b/SDET_10-Selenium/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6075" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Org" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I13"/>
+  <oleSize ref="A1:K13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -92,9 +92,6 @@
     <t>createOrgWithType</t>
   </si>
   <si>
-    <t>industry</t>
-  </si>
-  <si>
     <t>SingUP</t>
   </si>
   <si>
@@ -420,6 +417,9 @@
   </si>
   <si>
     <t>Manuu</t>
+  </si>
+  <si>
+    <t>Amazon</t>
   </si>
 </sst>
 </file>
@@ -748,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J310"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2133,16 +2133,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2150,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -2185,332 +2185,332 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2610,552 +2610,552 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3167,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3204,7 +3204,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3231,7 +3231,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>

--- a/SDET_10-Selenium/testData/TestData.xlsx
+++ b/SDET_10-Selenium/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6075" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Org" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K13"/>
+  <oleSize ref="A1:I13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="131">
   <si>
     <t>TestID</t>
   </si>
@@ -53,21 +53,9 @@
     <t>testYatra</t>
   </si>
   <si>
-    <t>LastName</t>
-  </si>
-  <si>
     <t>Deepak</t>
   </si>
   <si>
-    <t>OrgamizationSearchOptions</t>
-  </si>
-  <si>
-    <t>LeadSource</t>
-  </si>
-  <si>
-    <t>Partner</t>
-  </si>
-  <si>
     <t>Industry</t>
   </si>
   <si>
@@ -420,6 +408,15 @@
   </si>
   <si>
     <t>Amazon</t>
+  </si>
+  <si>
+    <t>NSPiders</t>
+  </si>
+  <si>
+    <t>Sunil</t>
+  </si>
+  <si>
+    <t>ContactNAme</t>
   </si>
 </sst>
 </file>
@@ -748,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J310"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +754,7 @@
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -772,17 +769,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -791,17 +781,14 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -820,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -837,7 +824,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1227,7 +1214,7 @@
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="G92" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -2133,16 +2120,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2150,19 +2137,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2185,332 +2172,332 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2610,552 +2597,552 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3167,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="130" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3201,10 +3188,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3231,7 +3218,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -3244,13 +3231,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
